--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/CdVarValue.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/CdVarValue.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747F4D4C-FFF6-4FFF-B565-EB99F9B803B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="150">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -599,11 +600,14 @@
     <t>會計變動數值設定檔</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>TIMESTAMP</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -770,7 +774,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -786,9 +790,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -798,16 +799,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -815,9 +816,6 @@
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -830,9 +828,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -852,7 +847,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -868,9 +863,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -908,9 +903,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -945,7 +940,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -980,7 +975,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1153,419 +1148,419 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.21875" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36" style="7" customWidth="1"/>
-    <col min="5" max="6" width="6" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.44140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.21875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36" style="6" customWidth="1"/>
+    <col min="5" max="6" width="6" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.44140625" style="20" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="21.44140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="9" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="24"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="13" t="s">
+      <c r="A2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="19" t="s">
+      <c r="B3" s="22"/>
+      <c r="C3" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-    </row>
-    <row r="8" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
+      <c r="B7" s="22"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="19">
+      <c r="A9" s="17">
         <v>1</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="17">
         <v>6</v>
       </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="22" t="s">
+      <c r="F9" s="17"/>
+      <c r="G9" s="19" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="19">
+      <c r="A10" s="17">
         <v>2</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="17">
         <v>16</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="17">
         <v>2</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="G10" s="19" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="19">
+      <c r="A11" s="17">
         <v>3</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="17">
         <v>16</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="17">
         <v>2</v>
       </c>
-      <c r="G11" s="22" t="s">
+      <c r="G11" s="19" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="19">
+      <c r="A12" s="17">
         <v>4</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="17">
         <v>16</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="17">
         <v>2</v>
       </c>
-      <c r="G12" s="22" t="s">
+      <c r="G12" s="19" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="19">
+      <c r="A13" s="17">
         <v>5</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="17">
         <v>16</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="17">
         <v>2</v>
       </c>
-      <c r="G13" s="22" t="s">
+      <c r="G13" s="19" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="19">
+      <c r="A14" s="17">
         <v>6</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="D14" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="22"/>
+      <c r="D14" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="19"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="19">
+      <c r="A15" s="17">
         <v>7</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="17">
         <v>6</v>
       </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="22"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="19"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="19">
+      <c r="A16" s="17">
         <v>8</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="22" t="s">
+      <c r="D16" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="19" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="19">
+      <c r="A17" s="17">
         <v>9</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17" s="17">
         <v>6</v>
       </c>
-      <c r="F17" s="19"/>
-      <c r="G17" s="22" t="s">
+      <c r="F17" s="17"/>
+      <c r="G17" s="19" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="22"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="19"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="22"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="19"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="19"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="22"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="19"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="22"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="19"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="22"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="19"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="22"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="19"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="19"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="22"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="19"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="19"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="22"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="19"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="22"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="19"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="22"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="19"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="19"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="22"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1584,7 +1579,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
@@ -1644,7 +1639,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
@@ -1653,1028 +1648,1028 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="32.21875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="43.21875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="32.21875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.21875" style="5" customWidth="1"/>
     <col min="8" max="16384" width="21.44140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="9" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="24"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="13" t="s">
+      <c r="A2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="19" t="s">
+      <c r="B3" s="22"/>
+      <c r="C3" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-    </row>
-    <row r="8" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
+      <c r="B7" s="22"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="19">
+      <c r="A9" s="17">
         <v>1</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="17">
         <v>2</v>
       </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="22" t="s">
+      <c r="F9" s="17"/>
+      <c r="G9" s="19" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="19">
+      <c r="A10" s="17">
         <v>2</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="17">
         <v>8</v>
       </c>
-      <c r="G10" s="21" t="s">
+      <c r="G10" s="18" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="19">
+      <c r="A11" s="17">
         <v>3</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="17">
         <v>1</v>
       </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="22" t="s">
+      <c r="F11" s="17"/>
+      <c r="G11" s="19" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="19">
+      <c r="A12" s="17">
         <v>4</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="17">
         <v>8</v>
       </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="22" t="s">
+      <c r="F12" s="17"/>
+      <c r="G12" s="19" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="19">
+      <c r="A13" s="17">
         <v>5</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="17">
         <v>7</v>
       </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="22"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="19"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="19">
+      <c r="A14" s="17">
         <v>6</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="17">
         <v>11</v>
       </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="22" t="s">
+      <c r="F14" s="17"/>
+      <c r="G14" s="19" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="19">
+      <c r="A15" s="17">
         <v>7</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="17">
         <v>11</v>
       </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="22" t="s">
+      <c r="F15" s="17"/>
+      <c r="G15" s="19" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="19">
+      <c r="A16" s="17">
         <v>8</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="17">
         <v>4</v>
       </c>
-      <c r="F16" s="19"/>
-      <c r="G16" s="22" t="s">
+      <c r="F16" s="17"/>
+      <c r="G16" s="19" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="19">
+      <c r="A17" s="17">
         <v>9</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17" s="17">
         <v>11</v>
       </c>
-      <c r="F17" s="19"/>
-      <c r="G17" s="22" t="s">
+      <c r="F17" s="17"/>
+      <c r="G17" s="19" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="19">
+      <c r="A18" s="17">
         <v>10</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="17">
         <v>4</v>
       </c>
-      <c r="F18" s="19"/>
-      <c r="G18" s="22" t="s">
+      <c r="F18" s="17"/>
+      <c r="G18" s="19" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="19">
+      <c r="A19" s="17">
         <v>11</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E19" s="17">
         <v>4</v>
       </c>
-      <c r="F19" s="19"/>
-      <c r="G19" s="22" t="s">
+      <c r="F19" s="17"/>
+      <c r="G19" s="19" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="19">
+      <c r="A20" s="17">
         <v>12</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E20" s="17">
         <v>6</v>
       </c>
-      <c r="F20" s="19"/>
-      <c r="G20" s="22" t="s">
+      <c r="F20" s="17"/>
+      <c r="G20" s="19" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="19">
+      <c r="A21" s="17">
         <v>13</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="E21" s="19">
+      <c r="E21" s="17">
         <v>6</v>
       </c>
-      <c r="F21" s="19"/>
-      <c r="G21" s="22" t="s">
+      <c r="F21" s="17"/>
+      <c r="G21" s="19" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="19">
+      <c r="A22" s="17">
         <v>14</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="E22" s="19">
+      <c r="E22" s="17">
         <v>8</v>
       </c>
-      <c r="F22" s="19"/>
-      <c r="G22" s="22" t="s">
+      <c r="F22" s="17"/>
+      <c r="G22" s="19" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="19">
+      <c r="A23" s="17">
         <v>15</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="19">
+      <c r="E23" s="17">
         <v>3</v>
       </c>
-      <c r="F23" s="19"/>
-      <c r="G23" s="22" t="s">
+      <c r="F23" s="17"/>
+      <c r="G23" s="19" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="19">
+      <c r="A24" s="17">
         <v>16</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="E24" s="19">
+      <c r="E24" s="17">
         <v>5</v>
       </c>
-      <c r="F24" s="19"/>
-      <c r="G24" s="22" t="s">
+      <c r="F24" s="17"/>
+      <c r="G24" s="19" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="19">
+      <c r="A25" s="17">
         <v>17</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="E25" s="19">
+      <c r="E25" s="17">
         <v>5</v>
       </c>
-      <c r="F25" s="19"/>
-      <c r="G25" s="22" t="s">
+      <c r="F25" s="17"/>
+      <c r="G25" s="19" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="19">
+      <c r="A26" s="17">
         <v>18</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="E26" s="19">
+      <c r="E26" s="17">
         <v>5</v>
       </c>
-      <c r="F26" s="19"/>
-      <c r="G26" s="22" t="s">
+      <c r="F26" s="17"/>
+      <c r="G26" s="19" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="19">
+      <c r="A27" s="17">
         <v>19</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="E27" s="19">
+      <c r="E27" s="17">
         <v>5</v>
       </c>
-      <c r="F27" s="19"/>
-      <c r="G27" s="22" t="s">
+      <c r="F27" s="17"/>
+      <c r="G27" s="19" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="19">
+      <c r="A28" s="17">
         <v>20</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="C28" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="D28" s="19" t="s">
+      <c r="D28" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="E28" s="19">
+      <c r="E28" s="17">
         <v>4</v>
       </c>
-      <c r="F28" s="19"/>
-      <c r="G28" s="22" t="s">
+      <c r="F28" s="17"/>
+      <c r="G28" s="19" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="19">
+      <c r="A29" s="17">
         <v>21</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C29" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D29" s="19" t="s">
+      <c r="D29" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E29" s="19">
+      <c r="E29" s="17">
         <v>3</v>
       </c>
-      <c r="F29" s="19"/>
-      <c r="G29" s="22" t="s">
+      <c r="F29" s="17"/>
+      <c r="G29" s="19" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="19">
+      <c r="A30" s="17">
         <v>22</v>
       </c>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19" t="s">
+      <c r="B30" s="17"/>
+      <c r="C30" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="19" t="s">
+      <c r="D30" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="E30" s="19">
+      <c r="E30" s="17">
         <v>11</v>
       </c>
-      <c r="F30" s="19"/>
-      <c r="G30" s="22" t="s">
+      <c r="F30" s="17"/>
+      <c r="G30" s="19" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="19">
+      <c r="A31" s="17">
         <v>23</v>
       </c>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19" t="s">
+      <c r="B31" s="17"/>
+      <c r="C31" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="19" t="s">
+      <c r="D31" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="E31" s="19">
+      <c r="E31" s="17">
         <v>3</v>
       </c>
-      <c r="F31" s="19"/>
-      <c r="G31" s="22" t="s">
+      <c r="F31" s="17"/>
+      <c r="G31" s="19" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="19">
+      <c r="A32" s="17">
         <v>24</v>
       </c>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19" t="s">
+      <c r="B32" s="17"/>
+      <c r="C32" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="19" t="s">
+      <c r="D32" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="E32" s="19">
+      <c r="E32" s="17">
         <v>2</v>
       </c>
-      <c r="F32" s="19"/>
-      <c r="G32" s="22" t="s">
+      <c r="F32" s="17"/>
+      <c r="G32" s="19" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="19">
+      <c r="A33" s="17">
         <v>25</v>
       </c>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19" t="s">
+      <c r="B33" s="17"/>
+      <c r="C33" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D33" s="19" t="s">
+      <c r="D33" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E33" s="19">
+      <c r="E33" s="17">
         <v>10</v>
       </c>
-      <c r="F33" s="19"/>
-      <c r="G33" s="22" t="s">
+      <c r="F33" s="17"/>
+      <c r="G33" s="19" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="19">
+      <c r="A34" s="17">
         <v>26</v>
       </c>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19" t="s">
+      <c r="B34" s="17"/>
+      <c r="C34" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="D34" s="19" t="s">
+      <c r="D34" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E34" s="19">
+      <c r="E34" s="17">
         <v>1</v>
       </c>
-      <c r="F34" s="19"/>
-      <c r="G34" s="22" t="s">
+      <c r="F34" s="17"/>
+      <c r="G34" s="19" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="19">
+      <c r="A35" s="17">
         <v>27</v>
       </c>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19" t="s">
+      <c r="B35" s="17"/>
+      <c r="C35" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="D35" s="19" t="s">
+      <c r="D35" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E35" s="19">
+      <c r="E35" s="17">
         <v>2</v>
       </c>
-      <c r="F35" s="19"/>
-      <c r="G35" s="22" t="s">
+      <c r="F35" s="17"/>
+      <c r="G35" s="19" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="19">
+      <c r="A36" s="17">
         <v>28</v>
       </c>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19" t="s">
+      <c r="B36" s="17"/>
+      <c r="C36" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="D36" s="19" t="s">
+      <c r="D36" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E36" s="19">
+      <c r="E36" s="17">
         <v>2</v>
       </c>
-      <c r="F36" s="19"/>
-      <c r="G36" s="22" t="s">
+      <c r="F36" s="17"/>
+      <c r="G36" s="19" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="19">
+      <c r="A37" s="17">
         <v>29</v>
       </c>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19" t="s">
+      <c r="B37" s="17"/>
+      <c r="C37" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="D37" s="19" t="s">
+      <c r="D37" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="E37" s="19">
+      <c r="E37" s="17">
         <v>7</v>
       </c>
-      <c r="F37" s="19"/>
-      <c r="G37" s="22" t="s">
+      <c r="F37" s="17"/>
+      <c r="G37" s="19" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="19">
+      <c r="A38" s="17">
         <v>30</v>
       </c>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19" t="s">
+      <c r="B38" s="17"/>
+      <c r="C38" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="D38" s="19" t="s">
+      <c r="D38" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="E38" s="19">
+      <c r="E38" s="17">
         <v>7</v>
       </c>
-      <c r="F38" s="19"/>
-      <c r="G38" s="22" t="s">
+      <c r="F38" s="17"/>
+      <c r="G38" s="19" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="19">
+      <c r="A39" s="17">
         <v>31</v>
       </c>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19" t="s">
+      <c r="B39" s="17"/>
+      <c r="C39" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="D39" s="19" t="s">
+      <c r="D39" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="E39" s="19">
+      <c r="E39" s="17">
         <v>5</v>
       </c>
-      <c r="F39" s="19"/>
-      <c r="G39" s="22" t="s">
+      <c r="F39" s="17"/>
+      <c r="G39" s="19" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="19">
+      <c r="A40" s="17">
         <v>32</v>
       </c>
-      <c r="B40" s="19"/>
-      <c r="C40" s="19" t="s">
+      <c r="B40" s="17"/>
+      <c r="C40" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="D40" s="19" t="s">
+      <c r="D40" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E40" s="19">
+      <c r="E40" s="17">
         <v>5</v>
       </c>
-      <c r="F40" s="19"/>
-      <c r="G40" s="22" t="s">
+      <c r="F40" s="17"/>
+      <c r="G40" s="19" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="19">
+      <c r="A41" s="17">
         <v>33</v>
       </c>
-      <c r="B41" s="19"/>
-      <c r="C41" s="19" t="s">
+      <c r="B41" s="17"/>
+      <c r="C41" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="D41" s="19" t="s">
+      <c r="D41" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E41" s="19">
+      <c r="E41" s="17">
         <v>5</v>
       </c>
-      <c r="F41" s="19"/>
-      <c r="G41" s="22" t="s">
+      <c r="F41" s="17"/>
+      <c r="G41" s="19" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="19">
+      <c r="A42" s="17">
         <v>34</v>
       </c>
-      <c r="B42" s="19"/>
-      <c r="C42" s="19" t="s">
+      <c r="B42" s="17"/>
+      <c r="C42" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="D42" s="19" t="s">
+      <c r="D42" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E42" s="19">
+      <c r="E42" s="17">
         <v>1</v>
       </c>
-      <c r="F42" s="19"/>
-      <c r="G42" s="22" t="s">
+      <c r="F42" s="17"/>
+      <c r="G42" s="19" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="19">
+      <c r="A43" s="17">
         <v>35</v>
       </c>
-      <c r="B43" s="19"/>
-      <c r="C43" s="19" t="s">
+      <c r="B43" s="17"/>
+      <c r="C43" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="D43" s="19" t="s">
+      <c r="D43" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E43" s="19">
+      <c r="E43" s="17">
         <v>1</v>
       </c>
-      <c r="F43" s="19"/>
-      <c r="G43" s="22" t="s">
+      <c r="F43" s="17"/>
+      <c r="G43" s="19" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="19">
+      <c r="A44" s="17">
         <v>36</v>
       </c>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19" t="s">
+      <c r="B44" s="17"/>
+      <c r="C44" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="D44" s="19" t="s">
+      <c r="D44" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="E44" s="19">
+      <c r="E44" s="17">
         <v>6</v>
       </c>
-      <c r="F44" s="19"/>
-      <c r="G44" s="22" t="s">
+      <c r="F44" s="17"/>
+      <c r="G44" s="19" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="19">
+      <c r="A45" s="17">
         <v>37</v>
       </c>
-      <c r="B45" s="19" t="s">
+      <c r="B45" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="C45" s="19" t="s">
+      <c r="C45" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="D45" s="19" t="s">
+      <c r="D45" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E45" s="19">
+      <c r="E45" s="17">
         <v>8</v>
       </c>
-      <c r="F45" s="19"/>
-      <c r="G45" s="22"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="19"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="19">
+      <c r="A46" s="17">
         <v>38</v>
       </c>
-      <c r="B46" s="19" t="s">
+      <c r="B46" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="C46" s="19" t="s">
+      <c r="C46" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="D46" s="19" t="s">
+      <c r="D46" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E46" s="19">
+      <c r="E46" s="17">
         <v>6</v>
       </c>
-      <c r="F46" s="19"/>
-      <c r="G46" s="22"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="19"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="19">
+      <c r="A47" s="17">
         <v>39</v>
       </c>
-      <c r="B47" s="19" t="s">
+      <c r="B47" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C47" s="19" t="s">
+      <c r="C47" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D47" s="19" t="s">
+      <c r="D47" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E47" s="19">
+      <c r="E47" s="17">
         <v>8</v>
       </c>
-      <c r="F47" s="19" t="s">
+      <c r="F47" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G47" s="22" t="s">
+      <c r="G47" s="19" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="19">
+      <c r="A48" s="17">
         <v>40</v>
       </c>
-      <c r="B48" s="19" t="s">
+      <c r="B48" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C48" s="19" t="s">
+      <c r="C48" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D48" s="19" t="s">
+      <c r="D48" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E48" s="19">
+      <c r="E48" s="17">
         <v>6</v>
       </c>
-      <c r="F48" s="19" t="s">
+      <c r="F48" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G48" s="22" t="s">
+      <c r="G48" s="19" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="19"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19"/>
+      <c r="A49" s="17"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="19"/>
-      <c r="B50" s="19"/>
-      <c r="C50" s="19"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="19"/>
+      <c r="A50" s="17"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="19"/>
-      <c r="B51" s="19"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="19"/>
+      <c r="A51" s="17"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="19"/>
-      <c r="B52" s="19"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="19"/>
-      <c r="G52" s="19"/>
+      <c r="A52" s="17"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="19"/>
-      <c r="B53" s="19"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="19"/>
+      <c r="A53" s="17"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="19"/>
-      <c r="B54" s="19"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="19"/>
+      <c r="A54" s="17"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="17"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="19"/>
-      <c r="B55" s="19"/>
-      <c r="C55" s="19"/>
-      <c r="D55" s="19"/>
-      <c r="E55" s="19"/>
-      <c r="F55" s="19"/>
-      <c r="G55" s="19"/>
+      <c r="A55" s="17"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="17"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="19"/>
-      <c r="B56" s="19"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="19"/>
-      <c r="F56" s="19"/>
-      <c r="G56" s="19"/>
+      <c r="A56" s="17"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="19"/>
-      <c r="B57" s="19"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="19"/>
-      <c r="F57" s="19"/>
-      <c r="G57" s="19"/>
+      <c r="A57" s="17"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="19"/>
-      <c r="B58" s="19"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="19"/>
-      <c r="G58" s="19"/>
+      <c r="A58" s="17"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="19"/>
-      <c r="B59" s="19"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="19"/>
-      <c r="F59" s="19"/>
-      <c r="G59" s="19"/>
+      <c r="A59" s="17"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="7">
